--- a/Hands-on lab/Azure Passes - ICRC .xlsx
+++ b/Hands-on lab/Azure Passes - ICRC .xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\japearse\Documents\GitHub\ICRC-Modern-Cloud-Apps\Hands-on lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7C97BEF-B1FD-4F63-A9BF-6107999C63F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319B545D-C85B-483A-A55C-95A2B3680BC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="97E9JZIXamnD0cMckm7rsd01wdQ7nmSqiHWTOnpvpla0NUJ0Sbl/UrLT/6Z9uEHlKjkqnXUj0LNNcisQT4uA6w==" workbookSaltValue="qxiqaO/Nm2xEXHtj5vY/hg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Azure Passes - ICRC " sheetId="1" r:id="rId1"/>
@@ -211,7 +212,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -348,7 +349,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -356,7 +356,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -758,9 +759,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1115,265 +1116,265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="36.3828125" customWidth="1"/>
+    <col min="1" max="1" width="39.23046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>61</v>
       </c>
     </row>
